--- a/Übersicht Reports.xlsx
+++ b/Übersicht Reports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\bachelor-performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEC81A97-9079-4671-87EE-40596154ED5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E1631B-3E2E-43E8-9628-3466DE7ED2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32250" yWindow="225" windowWidth="25005" windowHeight="13545" xr2:uid="{26CC9678-1323-442C-8396-9C8404F238D2}"/>
+    <workbookView xWindow="30390" yWindow="990" windowWidth="25005" windowHeight="13545" xr2:uid="{26CC9678-1323-442C-8396-9C8404F238D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="130">
   <si>
     <t>PC01</t>
   </si>
@@ -391,6 +391,39 @@
   </si>
   <si>
     <t>3h 16m 15s</t>
+  </si>
+  <si>
+    <t>1h 54m 2s</t>
+  </si>
+  <si>
+    <t>1h 50m 23s</t>
+  </si>
+  <si>
+    <t>1h 50m 5s</t>
+  </si>
+  <si>
+    <t>1h 51m 0s</t>
+  </si>
+  <si>
+    <t>1h 2m 10s</t>
+  </si>
+  <si>
+    <t>1h 49m 35s</t>
+  </si>
+  <si>
+    <t>1 45m 48s</t>
+  </si>
+  <si>
+    <t>1h 49m 26s</t>
+  </si>
+  <si>
+    <t>1h 46m 48s</t>
+  </si>
+  <si>
+    <t>1h 45m 50s</t>
+  </si>
+  <si>
+    <t>1h 52m 16s</t>
   </si>
 </sst>
 </file>
@@ -418,7 +451,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +470,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -450,13 +489,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -774,7 +814,7 @@
   <dimension ref="A2:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,19 +847,19 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G3" t="s">
@@ -833,40 +873,43 @@
       </c>
       <c r="J3" t="s">
         <v>108</v>
+      </c>
+      <c r="K3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -874,34 +917,34 @@
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -909,34 +952,34 @@
       <c r="A6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="6" t="s">
         <v>92</v>
       </c>
     </row>
@@ -944,34 +987,34 @@
       <c r="A7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1006,34 +1049,34 @@
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="6" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1041,34 +1084,34 @@
       <c r="A11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="6" t="s">
         <v>116</v>
       </c>
       <c r="L11" s="4"/>
@@ -1083,22 +1126,52 @@
       <c r="C12" t="s">
         <v>117</v>
       </c>
+      <c r="D12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="6" t="s">
         <v>111</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">

--- a/Übersicht Reports.xlsx
+++ b/Übersicht Reports.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\bachelor-performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E1631B-3E2E-43E8-9628-3466DE7ED2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959EDA7F-A531-43EE-865C-3E79D88D993A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30390" yWindow="990" windowWidth="25005" windowHeight="13545" xr2:uid="{26CC9678-1323-442C-8396-9C8404F238D2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{26CC9678-1323-442C-8396-9C8404F238D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="208">
   <si>
     <t>PC01</t>
   </si>
@@ -60,9 +61,6 @@
     <t>25m 41s</t>
   </si>
   <si>
-    <t>25m 49s</t>
-  </si>
-  <si>
     <t>55m 31s</t>
   </si>
   <si>
@@ -120,18 +118,6 @@
     <t>UserBenchmark</t>
   </si>
   <si>
-    <t>Geekbench</t>
-  </si>
-  <si>
-    <t>30% schneller</t>
-  </si>
-  <si>
-    <t>8% schneller</t>
-  </si>
-  <si>
-    <t>25% schneller</t>
-  </si>
-  <si>
     <t>IntegerMath</t>
   </si>
   <si>
@@ -147,12 +133,6 @@
     <t>Western Digital WDC WD10EZEX-60M2NA0</t>
   </si>
   <si>
-    <t>IPOS</t>
-  </si>
-  <si>
-    <t>25m 13s</t>
-  </si>
-  <si>
     <t>1h 21m</t>
   </si>
   <si>
@@ -162,9 +142,6 @@
     <t>56min 17s</t>
   </si>
   <si>
-    <t>25m 39s</t>
-  </si>
-  <si>
     <t>55min 52s</t>
   </si>
   <si>
@@ -189,12 +166,6 @@
     <t>14m 10s</t>
   </si>
   <si>
-    <t>CPU 4</t>
-  </si>
-  <si>
-    <t>RAM 16GB</t>
-  </si>
-  <si>
     <t>54m 17s</t>
   </si>
   <si>
@@ -243,21 +214,12 @@
     <t>n2-highcpu-8 </t>
   </si>
   <si>
-    <t>CPU 8</t>
-  </si>
-  <si>
-    <t>RAM 8 GB</t>
-  </si>
-  <si>
     <t>3h 13m 47s</t>
   </si>
   <si>
     <t>n2-highmem-4</t>
   </si>
   <si>
-    <t>RAM 32 GB</t>
-  </si>
-  <si>
     <t>VM01 (i2)</t>
   </si>
   <si>
@@ -336,9 +298,6 @@
     <t xml:space="preserve">PC01 </t>
   </si>
   <si>
-    <t>? Problem</t>
-  </si>
-  <si>
     <t>1h 50m 6s</t>
   </si>
   <si>
@@ -357,12 +316,6 @@
     <t>3h 15m 17s</t>
   </si>
   <si>
-    <t>25m 53s</t>
-  </si>
-  <si>
-    <t>27m 23s</t>
-  </si>
-  <si>
     <t>1h 49m 0s</t>
   </si>
   <si>
@@ -405,9 +358,6 @@
     <t>1h 51m 0s</t>
   </si>
   <si>
-    <t>1h 2m 10s</t>
-  </si>
-  <si>
     <t>1h 49m 35s</t>
   </si>
   <si>
@@ -424,13 +374,298 @@
   </si>
   <si>
     <t>1h 52m 16s</t>
+  </si>
+  <si>
+    <t>1h 42m 30s</t>
+  </si>
+  <si>
+    <t>1h 41m 56s</t>
+  </si>
+  <si>
+    <t>1h 46m 53s</t>
+  </si>
+  <si>
+    <t>1h 50m 45s</t>
+  </si>
+  <si>
+    <t>2h 1m 51s</t>
+  </si>
+  <si>
+    <t>2h 0m 30s</t>
+  </si>
+  <si>
+    <t>26m 13s</t>
+  </si>
+  <si>
+    <t>26m 6s</t>
+  </si>
+  <si>
+    <t>28m 35s</t>
+  </si>
+  <si>
+    <t>26m 4s</t>
+  </si>
+  <si>
+    <t>25m 45s</t>
+  </si>
+  <si>
+    <t>25h 37s</t>
+  </si>
+  <si>
+    <t>3h 1m 25s</t>
+  </si>
+  <si>
+    <t>2h 48m 59s</t>
+  </si>
+  <si>
+    <t>Coremark</t>
+  </si>
+  <si>
+    <t>Geekbench5</t>
+  </si>
+  <si>
+    <t>GB5 SINGLE</t>
+  </si>
+  <si>
+    <t>GB5 MULTI</t>
+  </si>
+  <si>
+    <t>VM01</t>
+  </si>
+  <si>
+    <t>VM02</t>
+  </si>
+  <si>
+    <t>VM03</t>
+  </si>
+  <si>
+    <t>https://browser.geekbench.com/v5/cpu/compare/11400200?baseline=1257619</t>
+  </si>
+  <si>
+    <t>https://browser.geekbench.com/v5/cpu/11400317</t>
+  </si>
+  <si>
+    <t>https://browser.geekbench.com/v5/cpu/compare/11400323?baseline=1257619</t>
+  </si>
+  <si>
+    <t>MEMORY</t>
+  </si>
+  <si>
+    <t>7.77 GB</t>
+  </si>
+  <si>
+    <t>31.36 GB</t>
+  </si>
+  <si>
+    <t>15.63 GB</t>
+  </si>
+  <si>
+    <t>10.29 GB</t>
+  </si>
+  <si>
+    <t>https://browser.geekbench.com/v5/cpu/11400639</t>
+  </si>
+  <si>
+    <t>IOPS</t>
+  </si>
+  <si>
+    <t>IOPS READ</t>
+  </si>
+  <si>
+    <t>IOPS WRITE</t>
+  </si>
+  <si>
+    <t>https://openbenchmarking.org/test/pts/ramspeed&amp;eval=569b18070344a1a07e04a75f3edbeb3b2d951523#metrics</t>
+  </si>
+  <si>
+    <t>802 | 2572</t>
+  </si>
+  <si>
+    <t>933 | 3464</t>
+  </si>
+  <si>
+    <t>FP SMP</t>
+  </si>
+  <si>
+    <t>30MBs</t>
+  </si>
+  <si>
+    <t>24MBs</t>
+  </si>
+  <si>
+    <t>21958 MBs</t>
+  </si>
+  <si>
+    <t>INT SMP</t>
+  </si>
+  <si>
+    <t>23432 MB</t>
+  </si>
+  <si>
+    <t>23830 MB</t>
+  </si>
+  <si>
+    <t>21981 MBs</t>
+  </si>
+  <si>
+    <t>23147 MB</t>
+  </si>
+  <si>
+    <t>21954 MBs</t>
+  </si>
+  <si>
+    <t>12971 MB</t>
+  </si>
+  <si>
+    <t>13616 MBs</t>
+  </si>
+  <si>
+    <t>Google Cloud Persistent Disk</t>
+  </si>
+  <si>
+    <t>https://cloud.netapp.com/blog/gcp-cvo-blg-provisioned-iops-for-google-cloud-persistent-disk</t>
+  </si>
+  <si>
+    <t>Ausgeglichene nichtflüchtige Speicher</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/compute/docs/disks</t>
+  </si>
+  <si>
+    <t>nicht local !</t>
+  </si>
+  <si>
+    <t>https://medium.com/@duhroach/right-disk-type-for-performance-b1da856d087d</t>
+  </si>
+  <si>
+    <t>7391 | 7381</t>
+  </si>
+  <si>
+    <t>7223 | 7171</t>
+  </si>
+  <si>
+    <t>READ</t>
+  </si>
+  <si>
+    <t>WRITE</t>
+  </si>
+  <si>
+    <t>229,49 MB/s</t>
+  </si>
+  <si>
+    <t>231,15 MB/s</t>
+  </si>
+  <si>
+    <t>236,52 MB/s</t>
+  </si>
+  <si>
+    <t>236,20 MB/s</t>
+  </si>
+  <si>
+    <t>469 MB/s</t>
+  </si>
+  <si>
+    <t>433 MB/s</t>
+  </si>
+  <si>
+    <t>GEEKBENCH</t>
+  </si>
+  <si>
+    <t>PASSMARK</t>
+  </si>
+  <si>
+    <t>USERBENCHMARK</t>
+  </si>
+  <si>
+    <t>155 MB/s</t>
+  </si>
+  <si>
+    <t>137 MB/s</t>
+  </si>
+  <si>
+    <t>Durchschnitt</t>
+  </si>
+  <si>
+    <t>28m 19s</t>
+  </si>
+  <si>
+    <t>59m 59s</t>
+  </si>
+  <si>
+    <t>15m 50s</t>
+  </si>
+  <si>
+    <t>24m 21s</t>
+  </si>
+  <si>
+    <t>16m 36s</t>
+  </si>
+  <si>
+    <t>IOPS fio</t>
+  </si>
+  <si>
+    <t>3h 15m 15s</t>
+  </si>
+  <si>
+    <t>1h 52m 25s</t>
+  </si>
+  <si>
+    <t>1h 48m 17s</t>
+  </si>
+  <si>
+    <t>1h 50m 18s</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>Sekunden</t>
+  </si>
+  <si>
+    <t>2h 55m 52s</t>
+  </si>
+  <si>
+    <t>Base PC02 zu VM02</t>
+  </si>
+  <si>
+    <t>230 MB</t>
+  </si>
+  <si>
+    <t>eager</t>
+  </si>
+  <si>
+    <t>viral</t>
+  </si>
+  <si>
+    <t>Formel gewichteter Mittelwert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU lastig = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAM lastig = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISK lastig = </t>
+  </si>
+  <si>
+    <t>Gewichteter Mittelwert 2x</t>
+  </si>
+  <si>
+    <t>1.57,1.72,2.73,2.73,2.73</t>
+  </si>
+  <si>
+    <t>,84 - ,81</t>
+  </si>
+  <si>
+    <t>#-gleich 1.89</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,8 +685,46 @@
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -476,8 +749,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -485,11 +776,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -497,8 +798,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -811,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C8A148-A058-4714-9A2F-2014258B7320}">
-  <dimension ref="A2:L26"/>
+  <dimension ref="A2:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,26 +1147,32 @@
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,25 +1189,48 @@
         <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="M3" s="13">
+        <v>1699</v>
+      </c>
+      <c r="N3" s="22"/>
+      <c r="O3" s="19">
+        <f>M4/M3</f>
+        <v>2.1183048852266038</v>
+      </c>
+      <c r="P3" s="19">
+        <f>M5/M3</f>
+        <v>0.55915244261330199</v>
+      </c>
+      <c r="Q3" s="19">
+        <f>M6/M3</f>
+        <v>0.85991759858740435</v>
+      </c>
+      <c r="R3" s="19">
+        <f>M7/M3</f>
+        <v>0.58622719246615651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -889,464 +1241,1195 @@
         <v>5</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="J4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="M4" s="13">
+        <v>3599</v>
+      </c>
+      <c r="N4" s="23">
+        <f>M3/M4</f>
+        <v>0.47207557654904142</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="P4" s="23">
+        <f>M5/M4</f>
+        <v>0.26396221172547929</v>
+      </c>
+      <c r="Q4" s="19">
+        <f>M6/M4</f>
+        <v>0.40594609613781607</v>
+      </c>
+      <c r="R4" s="19">
+        <f>M7/M4</f>
+        <v>0.27674353987218669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="F5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="M5" s="13">
+        <v>950</v>
+      </c>
+      <c r="N5" s="23">
+        <f>M3/M5</f>
+        <v>1.7884210526315789</v>
+      </c>
+      <c r="O5" s="19">
+        <f>M4/M5</f>
+        <v>3.7884210526315791</v>
+      </c>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="19">
+        <f>M6/M5</f>
+        <v>1.5378947368421052</v>
+      </c>
+      <c r="R5" s="19">
+        <f>M7/M5</f>
+        <v>1.0484210526315789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="M6" s="13">
+        <v>1461</v>
+      </c>
+      <c r="N6" s="23">
+        <f>M3/M6</f>
+        <v>1.16290212183436</v>
+      </c>
+      <c r="O6" s="19">
+        <f>M4/M6</f>
+        <v>2.463381245722108</v>
+      </c>
+      <c r="P6" s="19">
+        <f>M5/M6</f>
+        <v>0.65023956194387411</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="R6" s="24">
+        <f>M7/M6</f>
+        <v>0.68172484599589322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="M7" s="13">
+        <v>996</v>
+      </c>
+      <c r="N7" s="23">
+        <f>M3/M7</f>
+        <v>1.7058232931726907</v>
+      </c>
+      <c r="O7" s="19">
+        <f>M4/M7</f>
+        <v>3.6134538152610443</v>
+      </c>
+      <c r="P7" s="19">
+        <f>M5/M7</f>
+        <v>0.95381526104417669</v>
+      </c>
+      <c r="Q7" s="19">
+        <f>M6/M7</f>
+        <v>1.4668674698795181</v>
+      </c>
+      <c r="R7" s="22"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="20">
+        <v>2.5960648148148149E-2</v>
+      </c>
+      <c r="C8" s="20">
+        <v>1.0891203703703703E-2</v>
+      </c>
+      <c r="D8" s="20">
+        <v>1.0810185185185185E-2</v>
+      </c>
+      <c r="E8" s="20">
+        <v>9.6990740740740735E-3</v>
+      </c>
+      <c r="F8" s="20">
+        <v>9.6412037037037039E-3</v>
+      </c>
+      <c r="G8" s="20">
+        <v>9.6064814814814815E-3</v>
+      </c>
+      <c r="H8" s="20">
+        <v>9.6759259259259264E-3</v>
+      </c>
+      <c r="I8" s="20">
+        <v>9.5833333333333343E-3</v>
+      </c>
+      <c r="J8" s="20">
+        <v>9.6064814814814815E-3</v>
+      </c>
+      <c r="K8" s="20">
+        <v>9.7685185185185184E-3</v>
+      </c>
+      <c r="L8" s="21">
+        <f>AVERAGE(B8:K8)</f>
+        <v>1.1524305555555555E-2</v>
+      </c>
+      <c r="M8" s="21"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" t="s">
+        <v>195</v>
+      </c>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="M12" s="11">
+        <v>11715</v>
+      </c>
+      <c r="O12" s="22"/>
+      <c r="P12" s="19">
+        <f>M13/M12</f>
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="Q12" s="19">
+        <f>M14/M12</f>
+        <v>0.55458813486982506</v>
+      </c>
+      <c r="R12" s="19">
+        <f>M15/M12</f>
+        <v>0.56491677336747759</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="M13" s="11">
+        <v>6745</v>
+      </c>
+      <c r="O13" s="19">
+        <f>M12/M13</f>
+        <v>1.736842105263158</v>
+      </c>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="19">
+        <f>M14/M13</f>
+        <v>0.96323202372127503</v>
+      </c>
+      <c r="R13" s="19">
+        <f>M15/M13</f>
+        <v>0.98117123795404004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="M14" s="11">
+        <v>6497</v>
+      </c>
+      <c r="O14" s="19">
+        <f>M12/M14</f>
+        <v>1.8031399107280284</v>
+      </c>
+      <c r="P14" s="19">
+        <f>M13/M14</f>
+        <v>1.0381714637525012</v>
+      </c>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="19">
+        <f>M15/M14</f>
+        <v>1.0186239802985995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="M15" s="11">
+        <v>6618</v>
+      </c>
+      <c r="O15" s="19">
+        <f>M12/M15</f>
+        <v>1.7701722574796011</v>
+      </c>
+      <c r="P15" s="19">
+        <f>M13/M15</f>
+        <v>1.0191900876397704</v>
+      </c>
+      <c r="Q15" s="19">
+        <f>M14/M15</f>
+        <v>0.98171653067391962</v>
+      </c>
+      <c r="R15" s="22"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>4800</v>
+      </c>
+      <c r="D17" s="4">
+        <v>70.7</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="4">
+        <v>14.62</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>7203</v>
+      </c>
+      <c r="D18" s="4">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="4">
+        <v>26.25</v>
+      </c>
+      <c r="H18" s="15">
+        <v>392</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1375</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="O18" s="10"/>
+      <c r="R18" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="S18" s="10"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="H19" s="14">
+        <v>933</v>
+      </c>
+      <c r="I19" s="14">
+        <v>2182</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="O19" s="8"/>
+      <c r="R19" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="6" t="s">
+      <c r="H20" s="15">
+        <v>922</v>
+      </c>
+      <c r="I20" s="15">
+        <v>4238</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="O20" s="8"/>
+      <c r="R20" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="H21" s="14">
+        <v>920</v>
+      </c>
+      <c r="I21" s="14">
+        <v>2150</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="8"/>
+      <c r="R21" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>141</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>178</v>
+      </c>
+      <c r="H25" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25">
+        <v>7223</v>
+      </c>
+      <c r="J25">
+        <v>7171</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="H26" t="s">
+        <v>138</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27">
+        <v>32</v>
+      </c>
+      <c r="H27" t="s">
+        <v>139</v>
+      </c>
+      <c r="I27">
+        <v>7391</v>
+      </c>
+      <c r="J27">
+        <v>7381</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
+        <v>151</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="J29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K13" s="6" t="s">
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>150</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="J30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" t="s">
+        <v>168</v>
+      </c>
+      <c r="G31">
+        <v>601</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="K31" t="s">
+        <v>165</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" t="s">
+        <v>163</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" t="s">
+        <v>167</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15">
-        <v>14.62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16">
-        <v>26.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
+      <c r="C39" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" t="s">
+        <v>170</v>
+      </c>
+      <c r="I39">
+        <v>1.8</v>
+      </c>
+      <c r="J39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40">
+        <v>2.38</v>
+      </c>
+      <c r="C40">
+        <v>3.08</v>
+      </c>
+      <c r="D40">
+        <v>1.83</v>
+      </c>
+      <c r="E40">
+        <v>1.61</v>
+      </c>
+      <c r="F40">
+        <v>1.48</v>
+      </c>
+      <c r="G40">
+        <v>1.67</v>
+      </c>
+      <c r="I40">
+        <v>2.46</v>
+      </c>
+      <c r="J40" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="25">
+        <v>2.73</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25">
+        <v>1.72</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25">
+        <v>1.575</v>
+      </c>
+      <c r="G41" s="25"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45">
+        <v>1.93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>206</v>
+      </c>
+      <c r="E45">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F45">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G45">
+        <v>0.63</v>
+      </c>
+      <c r="H45" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46">
+        <v>1.89</v>
+      </c>
+      <c r="C46">
+        <v>80.84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B41:C41"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B34" r:id="rId1" xr:uid="{4BB03EC4-3ED6-42AD-83CF-69EFBFA9FC2C}"/>
+    <hyperlink ref="B35" r:id="rId2" xr:uid="{9A9BF48E-0387-4A21-A9DF-42F44E44CA01}"/>
+    <hyperlink ref="L31" r:id="rId3" xr:uid="{3838289E-C6D9-46CD-9CA0-901707AA591C}"/>
+    <hyperlink ref="R20" r:id="rId4" xr:uid="{737AFFAB-E729-4AFB-939C-254FF4071264}"/>
+    <hyperlink ref="R19" r:id="rId5" xr:uid="{684ABCF6-2670-4A91-9652-C8F02C410135}"/>
+    <hyperlink ref="R21" r:id="rId6" xr:uid="{A8242283-3098-4BA0-A03E-8AC186539F53}"/>
+    <hyperlink ref="R18" r:id="rId7" xr:uid="{3C456579-B66F-4688-99CC-47CFF656637B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45077885-1396-4FE2-A33B-2A5A5C7E0B40}">
+  <dimension ref="A4:K5"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>2.5960648148148149E-2</v>
+      </c>
+      <c r="B4" s="16">
+        <v>1.0891203703703703E-2</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1.0810185185185185E-2</v>
+      </c>
+      <c r="D4" s="16">
+        <v>9.6990740740740735E-3</v>
+      </c>
+      <c r="E4" s="16">
+        <v>9.6412037037037039E-3</v>
+      </c>
+      <c r="F4" s="16">
+        <v>9.6064814814814815E-3</v>
+      </c>
+      <c r="G4" s="16">
+        <v>9.6759259259259264E-3</v>
+      </c>
+      <c r="H4" s="16">
+        <v>9.5833333333333343E-3</v>
+      </c>
+      <c r="I4" s="16">
+        <v>9.6064814814814815E-3</v>
+      </c>
+      <c r="J4" s="16">
+        <v>9.7685185185185184E-3</v>
+      </c>
+      <c r="K4" s="17">
+        <f>AVERAGE(A4:J4)</f>
+        <v>1.1524305555555555E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>37.229999999999997</v>
+      </c>
+      <c r="B5" s="18">
+        <v>15.41</v>
+      </c>
+      <c r="C5" s="18">
+        <v>15.34</v>
+      </c>
+      <c r="D5" s="18">
+        <v>13.58</v>
+      </c>
+      <c r="E5" s="18">
+        <v>13.53</v>
+      </c>
+      <c r="F5" s="18">
+        <v>13.5</v>
+      </c>
+      <c r="G5" s="18">
+        <v>13.56</v>
+      </c>
+      <c r="H5" s="18">
+        <v>13.48</v>
+      </c>
+      <c r="I5" s="18">
+        <v>13.5</v>
+      </c>
+      <c r="J5" s="18">
+        <v>14.04</v>
+      </c>
+      <c r="K5" s="19">
+        <f>AVERAGE(A5:J5)</f>
+        <v>16.317</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>